--- a/template/payroll_template.xlsx
+++ b/template/payroll_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/almaskotwal/Desktop/excel_automate/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEC6497-11C0-7C4D-A4B9-40CF19E2B93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E1A470-6FBB-AA45-B0B2-80FAE171AF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="21860" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,7 +357,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -370,57 +370,27 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -433,15 +403,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -471,6 +435,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,7 +605,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1895,104 +1901,105 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="26" customWidth="1"/>
     <col min="5" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="32" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="32" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="35" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2000,459 +2007,459 @@
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="37"/>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="38"/>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="18"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="18"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="18"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="37"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="37"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="18"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="37"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="18"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="37"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="18"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="37"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="21"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="18"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="37"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="18"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="37"/>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="37"/>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="37"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="18"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="21"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="18"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="37"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="37"/>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="18"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="37"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="37"/>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="36"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="37"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="18"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="37"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="38"/>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="21"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="18"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="37"/>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="18"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="37"/>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="18"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="37"/>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="18"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="37"/>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="18"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="37"/>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="21"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="18"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="37"/>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="18"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="37"/>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="18"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="37"/>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="18"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="37"/>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="18"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="37"/>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="21"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="18"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="37"/>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="18"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="37"/>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="18"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="37"/>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="18"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="37"/>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="18"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="37"/>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="21"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="18"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="37"/>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="18"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="37"/>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="18"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="37"/>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="18"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="37"/>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="18"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="37"/>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="21"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="18"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="37"/>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="18"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="37"/>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="18"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="37"/>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="18"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="37"/>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="18"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="37"/>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="24"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="26" t="s">
+      <c r="A70" s="14"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="27">
+      <c r="D70" s="39">
         <f>D54+D59+D60+D61</f>
         <v>0</v>
       </c>
